--- a/mysql和palo和gp对照表.xlsx
+++ b/mysql和palo和gp对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据类型" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="139">
   <si>
     <t>MYSQL</t>
   </si>
@@ -922,10 +922,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DROP DATABASE TEST;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>如果增加多个字段，优先选择这种方式增加。增加字段的时候一定要加上REPLACE关键字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1000,6 +996,132 @@
   </si>
   <si>
     <t>enum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE DATABASE TEST;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP DATABASE TEST;</t>
+  </si>
+  <si>
+    <t>DROP DATABASE TEST;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE BOSS_ACCOUNT;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE ttpai_boss_v1."BOSS_ACCOUNT";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter table ttpai_boss_v1."BOSS_ACCOUNT" rename to "BOSS_ACCOUNT2"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" ADD COLUMN COUNTRY VARCHAR(180);
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" ADD COLUMN COUNTRY1 VARCHAR(30),ADD COLUMN COUNTRY2 VARCHAR(30);
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" DROP COLUMN COUNTRY;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" DROP COLUMN COUNTRY1,DROP COLUMN COUNTRY2;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" ALTER COLUMN COUNTRY1 TYPE VARCHAR(30),ALTER COLUMN COUNTRY2 TYPE VARCHAR(30);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" ALTER COLUMN COUNTRY1 TYPE VARCHAR(30);
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" ALTER COLUMN COUNTRY1 TYPE VARCHAR(50),ALTER COLUMN COUNTRY2 TYPE VARCHAR(60);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" ALTER COLUMN COUNTRY1 TYPE VARCHAR(50);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有当列中的每一个项都能通过一个隐式造型转换为新的类型时该操作才能成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" RENAME  COUNTRY1 TO COUNTRY111;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" RENAME  COUNTRY1 TO COUNTRY111;
+ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" RENAME  COUNTRY2 TO COUNTRY222;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持多个字段一起修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE  ttpai_boss_v1."BOSS_ACCOUNT"(
+ID bigint   ,
+ADMIN_ID varchar(10)  ,
+ACCOUNT varchar(40)  ,
+PASSWORD varchar(200)  ,
+NAME varchar(40)  ,
+NAME_INDEX varchar(20)  ,
+JOB_ID bigint  ,
+DEPT_ID bigint  ,
+EMAIL varchar(100)  ,
+MPHONE varchar(100)  ,
+LOGIN_TIME timestamp  ,
+IS_BAN bigint  ,
+TR_IS_BINDING bigint  ,
+TR_SEAT_NUM bigint  ,
+TR_ACCOUNT varchar(40)  ,
+TR_PASSWORD varchar(100)  ,
+TR_FOREVER_ONLINE bigint  ,
+CITY_ID bigint  ,
+MODIFY_TIME timestamp  ,
+CREATE_TIME timestamp  ,
+PRIMARY KEY(ID,ADMIN_ID)
+) DISTRIBUTED BY (ID,ADMIN_ID) ; 
+COMMENT ON TABLE ttpai_boss_v1."BOSS_ACCOUNT" IS 'BOSS系统账号'; 
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".ID IS '';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".ADMIN_ID IS '老系统id';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".ACCOUNT IS '账号';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".PASSWORD IS '密码,MD5';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".NAME IS '姓名';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".NAME_INDEX IS '姓名首字母';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".JOB_ID IS '职称ID，关联BOSS_JOB职称表';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".DEPT_ID IS '部门ID，关联BOSS_DEPT部门表';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".EMAIL IS '用户邮箱';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".MPHONE IS '手机号码';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".LOGIN_TIME IS '最后一次登录时间';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".IS_BAN IS '是否禁用，0正常，1禁用';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".TR_IS_BINDING IS '是否绑定天润账号 0正常，1绑定';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".TR_SEAT_NUM IS '天润坐席号';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".TR_ACCOUNT IS '绑定的天润账号';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".TR_PASSWORD IS '天润密码';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".TR_FOREVER_ONLINE IS '永不下线 0永不下线，1正常';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".CITY_ID IS '所属城市';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".MODIFY_TIME IS '';  
+COMMENT ON COLUMN ttpai_boss_v1."BOSS_ACCOUNT".CREATE_TIME IS '';</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp建表的时候要加distributed by 字样，括号里面的内容是主键</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1481,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1512,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,7 +1655,7 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,7 +1673,7 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,7 +1691,7 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,7 +1709,7 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,7 +1727,7 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,7 +1745,7 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,7 +1763,7 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1659,7 +1781,7 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1677,7 +1799,7 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1695,7 +1817,7 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1713,7 +1835,7 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1731,7 +1853,7 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1749,7 +1871,7 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1767,7 +1889,7 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1785,7 +1907,7 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1803,7 +1925,7 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1821,7 +1943,7 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1839,7 +1961,7 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,7 +1981,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1879,7 +2001,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1897,10 +2019,10 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1917,10 +2039,10 @@
         <v>52</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1937,7 +2059,7 @@
         <v>52</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1955,7 +2077,7 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="26" x14ac:dyDescent="0.25">
@@ -1973,7 +2095,7 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1987,16 +2109,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.1796875" customWidth="1"/>
     <col min="2" max="2" width="68.08984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="79.6328125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="40.1796875" customWidth="1"/>
+    <col min="3" max="3" width="62.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
@@ -2010,8 +2134,12 @@
       <c r="D1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
@@ -2023,6 +2151,9 @@
       <c r="C2" s="11" t="s">
         <v>98</v>
       </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -2032,10 +2163,13 @@
         <v>99</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
@@ -2044,6 +2178,12 @@
       </c>
       <c r="C4" s="14" t="s">
         <v>58</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
@@ -2054,7 +2194,10 @@
         <v>59</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>59</v>
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
@@ -2067,6 +2210,9 @@
       <c r="C6" s="13" t="s">
         <v>92</v>
       </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
@@ -2081,8 +2227,11 @@
       <c r="D7" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="E7" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
@@ -2093,10 +2242,13 @@
         <v>70</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
@@ -2106,8 +2258,11 @@
       <c r="C9" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E9" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="71" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>67</v>
       </c>
@@ -2117,8 +2272,11 @@
       <c r="C10" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="E10" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="126" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>73</v>
       </c>
@@ -2129,10 +2287,16 @@
         <v>89</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="126" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>77</v>
       </c>
@@ -2143,10 +2307,13 @@
         <v>88</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="126" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>75</v>
       </c>
@@ -2157,10 +2324,13 @@
         <v>86</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="127" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>76</v>
       </c>
@@ -2171,7 +2341,10 @@
         <v>87</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.35">
@@ -2185,8 +2358,11 @@
       <c r="D15" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="E15" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>83</v>
       </c>
@@ -2196,6 +2372,12 @@
       <c r="C16" s="15"/>
       <c r="D16" s="14" t="s">
         <v>94</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/mysql和palo和gp对照表.xlsx
+++ b/mysql和palo和gp对照表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据类型" sheetId="1" r:id="rId1"/>
     <sheet name="DDL" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="数据类型互转" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="151">
   <si>
     <t>MYSQL</t>
   </si>
@@ -1123,6 +1123,42 @@
   <si>
     <t>gp建表的时候要加distributed by 字样，括号里面的内容是主键</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql double  到gp里面默认转换成 numeric(22,2),转成double,float 或者整型，gp不作处理</t>
+  </si>
+  <si>
+    <t>mysql varchar 支持转成 time,date ,datetime,timestamp,int 等类型 ，gp里面不支持从varchar转成除了text之外的其他类型</t>
+  </si>
+  <si>
+    <t>mysql date 转成 datetime 或者timestamp(默认时分秒加上00:00:00) gp里面转成timestamp without time zone(默认在后面加上时分秒00:00:00) ,转成varchar(m) ,gp里面也转成varchar(m)</t>
+  </si>
+  <si>
+    <t>mysql datetime 到gp里面默认转换成 timestamp without time zone ,转成date (时分秒会丢失),gp里面也转成date，转成timestamp,gp里面不作处理，转成varchar(m) ,gp里面也转成varchar(m)</t>
+  </si>
+  <si>
+    <t>mysql timestamp 到gp里面默认转换成 timestamp without time zone ,转成date (时分秒会丢失),gp里面也转成date,转成datetime,gp里面不作处理，转成varchar(m) ,gp里面也转成varchar(m)</t>
+  </si>
+  <si>
+    <t>总结：mysql里面的类型，只要里面的数值是合理的，能够互转，但是如果里面的数值超出了长度，比如bigint长度转成int，里面的数值超出了int的长度，会报错;还有一个原则是，强制转换数值会丢失 比如time类型的转换成date ,原有的时分秒丢失datetime转成date类型，时分秒也丢失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      gp里面能够互转的类型比较少，varchar的话，除了能和text互转，基本不能转换成其他类型，但是其他类型的值能够转换成varchar(转换之前要考虑风险，因为转换之后是不能还原回来了)。date 和timestamp能互转，但是timestamp转成date之后，时分秒精度会丢失。timestamp也能转成time(年月日精度丢失)，但是time不能转成timestamp</t>
+  </si>
+  <si>
+    <t>mysql tinyint,smallint,mediumint,int,bigint 类型在gp里面都是   bigint ,如果涉及到整型长度变长的这种类型修改(比如 smallint 转成 int)，gp里面一律不转</t>
+  </si>
+  <si>
+    <t>mysql float 默认长度是12   到gp里面默认转换成 numeric(12,2),如果转成 double 有精度的话,gp根据精度转成numeric(m,n),没精度默认是numeric(22,2),  转成decimal的话，gp按照精度来转成 numeric(m,n);转成整型的话，gp不作处理(mysql里面强制转换，但是精度会丢失)</t>
+  </si>
+  <si>
+    <t>mysql double 默认长度是22  到gp里面默认转换成 numeric(22,2),如果转成float，gp不作处理，如果转成decimal 的话，gp按照精度来转成 numeric(m,n)，转成整型的话，gp不作处理(mysql里面强制转换，但是精度会丢失)</t>
+  </si>
+  <si>
+    <t>mysql time 转成date(默认转成当天，原有的time精度丢失),gp里面  不能  转换成date，转成 datetime 或者timestamp(默认是加上当天的日期) gp里面  不能 转成timestamp without time zone ,转成varchar(m) ,gp里面也转成varchar(m)</t>
+  </si>
+  <si>
+    <t>mysql tinyblob,tinytext,blob,text,mediumblob,mediumtext,longblob,longtext 到gp里面默认转换成 text，mysql转成varchar(m),gp不作处理(和varchar能互转,但是不作处理)</t>
   </si>
 </sst>
 </file>
@@ -1607,23 +1643,23 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="38.6328125" customWidth="1"/>
-    <col min="6" max="6" width="26.36328125" customWidth="1"/>
+    <col min="5" max="5" width="38.625" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1640,7 +1676,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1694,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1676,7 +1712,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1694,7 +1730,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1712,7 +1748,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1766,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1748,7 +1784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1766,7 +1802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1784,7 +1820,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1838,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1820,7 +1856,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1838,7 +1874,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1856,7 +1892,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1874,7 +1910,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1892,7 +1928,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1910,7 +1946,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1928,7 +1964,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1946,7 +1982,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1964,7 +2000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1984,7 +2020,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2004,7 +2040,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -2022,7 +2058,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -2042,7 +2078,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -2062,7 +2098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2080,7 +2116,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -2109,21 +2145,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
-    <col min="2" max="2" width="68.08984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="62.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="68.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="62.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.75" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -2141,7 +2177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>96</v>
       </c>
@@ -2155,7 +2191,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>97</v>
       </c>
@@ -2169,7 +2205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
@@ -2186,7 +2222,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>57</v>
       </c>
@@ -2200,7 +2236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>90</v>
       </c>
@@ -2214,7 +2250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>62</v>
       </c>
@@ -2231,7 +2267,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
@@ -2248,7 +2284,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
@@ -2262,7 +2298,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>67</v>
       </c>
@@ -2276,7 +2312,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>73</v>
       </c>
@@ -2296,7 +2332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>77</v>
       </c>
@@ -2313,7 +2349,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>75</v>
       </c>
@@ -2330,7 +2366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="127" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>76</v>
       </c>
@@ -2347,7 +2383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>82</v>
       </c>
@@ -2362,7 +2398,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>83</v>
       </c>
@@ -2388,12 +2424,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mysql和palo和gp对照表.xlsx
+++ b/mysql和palo和gp对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据类型" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
   <si>
     <t>MYSQL</t>
   </si>
@@ -527,10 +527,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ALTER TABLE BOSS_ACCOUNT ADD COUNTRY VARCHAR(90);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ALTER TABLE BOSS_ACCOUNT ADD COLUMN COUNTRY VARCHAR(90) REPLACE DEFAULT 'CHINA' ;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -854,10 +850,6 @@
   </si>
   <si>
     <t>ALTER TABLE BOSS_ACCOUNT MODIFY COLUMN  JOB_ID BIGINT REPLACE;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rename table</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1159,6 +1151,160 @@
   </si>
   <si>
     <t>mysql tinyblob,tinytext,blob,text,mediumblob,mediumtext,longblob,longtext 到gp里面默认转换成 text，mysql转成varchar(m),gp不作处理(和varchar能互转,但是不作处理)</t>
+  </si>
+  <si>
+    <t>rename database</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER DATABASE TEST RENAME TO TEST1;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE BOSS_ACCOUNT ADD COUNTRY VARCHAR(90);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rename table(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rename table(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENAME TABLE BOSS_ACCOUNT TO BOSS_ACCOUNT1,BOSS_SIGNUP  TO BOSS_SIGNUP1;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE  ttpai_boss_v1."BOSS_ACCOUNT" RENAME TO "BOSS_ACCOUNT1";
+ALTER TABLE  ttpai_boss_v1."BOSS_ACCOUNT_ROLE" RENAME TO "BOSS_ACCOUNT_ROLE1";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp多个表分开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>alter table(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改一个字段名字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>alter table(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改多个字段名字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE BOSS_ACCOUNT CHANGE COUNTRY  COUNTRY111 VARCHAR(100);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE BOSS_ACCOUNT CHANGE COUNTRY  COUNTRY111 VARCHAR(100),CHANGE COUNTRY2 COUNTRY222 VARCHAR(100);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" RENAME COLUMN ACCOUNT TO ACCOUNT1;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" RENAME COLUMN COUNTRY1 TO COUNTRY111;
+ALTER TABLE ttpai_boss_v1."BOSS_ACCOUNT" RENAME COLUMN COUNTRY2 TO COUNTRY222;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个字段分开修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palo不支持列名修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1643,23 +1789,23 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="38.625" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="38.6328125" customWidth="1"/>
+    <col min="6" max="6" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1670,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1691,10 +1837,10 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1709,10 +1855,10 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1727,10 +1873,10 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1745,10 +1891,10 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1763,10 +1909,10 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1781,10 +1927,10 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1799,10 +1945,10 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1817,10 +1963,10 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1835,10 +1981,10 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1853,10 +1999,10 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1871,10 +2017,10 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1889,10 +2035,10 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1907,10 +2053,10 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1925,10 +2071,10 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1943,10 +2089,10 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1961,10 +2107,10 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1979,10 +2125,10 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1997,10 +2143,10 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -2017,10 +2163,10 @@
         <v>51</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2037,10 +2183,10 @@
         <v>49</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -2055,10 +2201,10 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -2075,10 +2221,10 @@
         <v>52</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -2095,10 +2241,10 @@
         <v>52</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -2113,10 +2259,10 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="26" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -2131,7 +2277,7 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2143,23 +2289,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.125" customWidth="1"/>
-    <col min="2" max="2" width="68.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="62.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.75" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="39.08984375" customWidth="1"/>
+    <col min="2" max="2" width="68.08984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="62.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -2168,252 +2314,311 @@
         <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="E8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="E9" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="F13" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="98" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="98" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="57" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="57" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="B20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="55.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2430,69 +2635,69 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/mysql和palo和gp对照表.xlsx
+++ b/mysql和palo和gp对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="数据类型" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="171">
   <si>
     <t>MYSQL</t>
   </si>
@@ -1304,6 +1304,86 @@
   </si>
   <si>
     <t>Palo不支持列名修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1785,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1829,8 +1909,8 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
+      <c r="C3" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>43</v>
@@ -1847,8 +1927,8 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
+      <c r="C4" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>44</v>
@@ -1865,8 +1945,8 @@
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
-        <v>3</v>
+      <c r="C5" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
@@ -1883,8 +1963,8 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
-        <v>4</v>
+      <c r="C6" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>45</v>
@@ -1901,8 +1981,8 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
-        <v>8</v>
+      <c r="C7" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
@@ -1919,8 +1999,8 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
-        <v>4</v>
+      <c r="C8" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -1937,8 +2017,8 @@
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
-        <v>8</v>
+      <c r="C9" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
@@ -2291,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
